--- a/biology/Zoologie/Cock_Fight,_No_2/Cock_Fight,_No_2.xlsx
+++ b/biology/Zoologie/Cock_Fight,_No_2/Cock_Fight,_No_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cock Fight, No 2 est un film américain réalisé par William Kennedy Laurie Dickson, sorti en 1894.
 Ce film est un des premiers tournés avec la première caméra de cinéma à défilement linéaire vertical, la caméra Kinétographe, au format 35 mm de large, à deux paires de quatre perforations par photogramme, conçue par Dickson à partir des croquis d'Edison et du premier modèle qui faisait dérouler horizontalement la pellicule de 19 mm de large, à six perforations en bas du cadre.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux coqs sont mis en présence l'un de l'autre et se battent, tandis que de chaque côté du cadre, leurs maîtres les excitent du geste. 
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Cock Fight, No 2
 Réalisation : W. K. L. Dickson
